--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Web дизайн ВТ-121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Web дизайн ВТ-121.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\Kurs\Экзамены _вопросы_1семестр_В01-ВТ-121\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA992F-3239-4565-AE98-835B4C1398EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
+    <workbookView xWindow="30600" yWindow="2160" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список 1" sheetId="1" r:id="rId1"/>
@@ -1722,8 +1728,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,6 +1843,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1855,9 +1867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1895,7 +1907,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1929,6 +1941,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1963,9 +1976,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2138,21 +2152,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.109375" customWidth="1"/>
     <col min="4" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>443</v>
       </c>
@@ -2160,7 +2174,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>444</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.8" customHeight="1">
+    <row r="3" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>440</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>445</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>441</v>
       </c>
@@ -2207,14 +2221,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>1983</v>
       </c>
       <c r="D6" s="2">
@@ -2230,14 +2244,14 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2253,14 +2267,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>449</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2276,14 +2290,14 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>454</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2299,14 +2313,14 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2322,14 +2336,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2345,14 +2359,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2368,14 +2382,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2391,14 +2405,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2414,14 +2428,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2437,14 +2451,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2460,14 +2474,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>457</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2483,14 +2497,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2506,14 +2520,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2529,14 +2543,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>454</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2552,14 +2566,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2575,14 +2589,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>466</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2598,14 +2612,14 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2621,14 +2635,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2644,14 +2658,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2667,14 +2681,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2690,14 +2704,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>414</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2713,14 +2727,14 @@
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>468</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2736,14 +2750,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>470</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2759,14 +2773,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>472</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2782,14 +2796,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>473</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2805,14 +2819,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>478</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2828,14 +2842,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>480</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2851,14 +2865,14 @@
         <v>482</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>483</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2874,14 +2888,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>488</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2897,14 +2911,14 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>493</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2920,14 +2934,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>497</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2943,14 +2957,14 @@
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2966,14 +2980,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="39" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>503</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2989,14 +3003,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>506</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3012,14 +3026,14 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>507</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3035,14 +3049,14 @@
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>508</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3058,14 +3072,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>513</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3081,14 +3095,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>515</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3104,14 +3118,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>516</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3127,14 +3141,14 @@
         <v>520</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>521</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3150,14 +3164,14 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>526</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3173,14 +3187,14 @@
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>528</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3196,14 +3210,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3219,14 +3233,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>535</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3242,14 +3256,14 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>536</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3265,14 +3279,14 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>541</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3288,14 +3302,14 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>543</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3311,14 +3325,14 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>548</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3334,14 +3348,14 @@
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="7" t="s">
         <v>550</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3357,14 +3371,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>551</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3380,14 +3394,14 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>552</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3403,14 +3417,14 @@
         <v>555</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>497</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3426,14 +3440,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3449,14 +3463,14 @@
         <v>556</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="60" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="7" t="s">
         <v>557</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3472,14 +3486,14 @@
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>162</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3495,14 +3509,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="62" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3518,14 +3532,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="63" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3541,14 +3555,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="64" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3564,14 +3578,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="65" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3587,14 +3601,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="66" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -3610,14 +3624,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="67" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -3633,14 +3647,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="73.2" customHeight="1" thickBot="1">
+    <row r="68" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="7" t="s">
         <v>563</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3656,14 +3670,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="69" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -3679,14 +3693,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="70" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="7" t="s">
         <v>205</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3702,14 +3716,14 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="71" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3725,14 +3739,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="72" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="7" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -3748,14 +3762,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="73" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3771,14 +3785,14 @@
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="74" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -3794,14 +3808,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="75" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3817,14 +3831,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="76" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -3840,14 +3854,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="77" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -3863,14 +3877,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="78" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="7" t="s">
         <v>370</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -3886,14 +3900,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="79" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>74</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -3909,14 +3923,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="80" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>75</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -3932,14 +3946,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="81" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>76</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -3955,14 +3969,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="82" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>77</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="7" t="s">
         <v>245</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -3978,14 +3992,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="83" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>78</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4001,14 +4015,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="84" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>79</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="7" t="s">
         <v>255</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -4024,14 +4038,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="85" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>80</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -4047,14 +4061,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="86" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>265</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -4070,14 +4084,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="87" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="7" t="s">
         <v>270</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4093,14 +4107,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="88" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>83</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="7" t="s">
         <v>273</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -4116,14 +4130,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="89" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>84</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -4139,14 +4153,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="90" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>85</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="7" t="s">
         <v>278</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4162,14 +4176,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="91" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>86</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="7" t="s">
         <v>280</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -4185,14 +4199,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="92" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>87</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -4208,14 +4222,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="93" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>88</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -4231,14 +4245,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="94" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>89</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="7" t="s">
         <v>291</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -4254,14 +4268,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="95" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>90</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="7" t="s">
         <v>296</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4277,14 +4291,14 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="96" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>91</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="7" t="s">
         <v>298</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -4300,14 +4314,14 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="97" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>92</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="7" t="s">
         <v>303</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -4323,14 +4337,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="98" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>93</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -4346,14 +4360,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="99" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>94</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -4369,14 +4383,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="100" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>95</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="7" t="s">
         <v>312</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -4392,14 +4406,14 @@
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="101" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>96</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="7" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -4415,14 +4429,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="102" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>97</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -4438,14 +4452,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="103" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>98</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -4461,14 +4475,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="104" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>99</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -4484,14 +4498,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="105" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>100</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4507,14 +4521,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="106" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>101</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -4530,14 +4544,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="107" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>102</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -4553,14 +4567,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="108" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>103</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4576,14 +4590,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="109" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>104</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -4599,14 +4613,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="110" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>105</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -4622,14 +4636,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="111" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>106</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4645,14 +4659,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="112" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>107</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -4668,14 +4682,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="113" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>108</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -4691,14 +4705,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="114" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>109</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -4714,14 +4728,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="115" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>110</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -4737,14 +4751,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="116" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>111</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -4760,14 +4774,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="117" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>112</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -4783,14 +4797,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="118" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>113</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -4806,14 +4820,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="119" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>114</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -4829,14 +4843,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="120" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>115</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="7" t="s">
         <v>146</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -4852,14 +4866,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="121" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>116</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="7" t="s">
         <v>147</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -4875,14 +4889,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="122" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>117</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -4898,14 +4912,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="123" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>118</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -4921,14 +4935,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="124" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>119</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -4944,14 +4958,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="125" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>120</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -4967,14 +4981,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="126" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>121</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -4990,14 +5004,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="127" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>122</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5013,14 +5027,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="128" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>123</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -5036,14 +5050,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="129" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>124</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="7" t="s">
         <v>370</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -5059,14 +5073,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="130" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>125</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -5082,14 +5096,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="131" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>126</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -5105,14 +5119,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="132" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>127</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -5128,14 +5142,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="133" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>128</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="7" t="s">
         <v>245</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -5151,14 +5165,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="134" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>129</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -5174,14 +5188,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="135" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>130</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="7" t="s">
         <v>255</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -5197,14 +5211,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="136" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>131</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -5220,14 +5234,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="137" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>132</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="7" t="s">
         <v>265</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5243,14 +5257,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="138" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>133</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="7" t="s">
         <v>270</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -5266,14 +5280,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="139" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>134</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="7" t="s">
         <v>273</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -5289,14 +5303,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="140" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>135</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -5312,14 +5326,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="141" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>136</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="7" t="s">
         <v>278</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -5335,14 +5349,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="142" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>137</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="7" t="s">
         <v>280</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -5358,14 +5372,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="143" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>138</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -5381,14 +5395,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="144" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>139</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -5404,14 +5418,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="145" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>140</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -5427,14 +5441,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="146" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>141</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -5450,14 +5464,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="147" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>142</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -5473,14 +5487,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="148" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>143</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -5496,14 +5510,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="149" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>144</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="7" t="s">
         <v>198</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -5519,14 +5533,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="150" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>145</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -5542,14 +5556,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="151" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>146</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="7" t="s">
         <v>205</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -5565,14 +5579,14 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="152" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>147</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D152" s="3" t="s">
@@ -5588,14 +5602,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="153" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>148</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="7" t="s">
         <v>427</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -5611,14 +5625,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="154" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>149</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -5634,7 +5648,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30" customHeight="1">
+    <row r="155" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>150</v>
       </c>
@@ -5646,24 +5660,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
